--- a/Haakoya_regression_coefs.xlsx
+++ b/Haakoya_regression_coefs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pni026/Documents/OccupancyAbundanceCalibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE3095B-3D39-1A4F-85F4-1D750609D6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040C50CC-BE73-734C-B929-DD704844D553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17000" yWindow="0" windowWidth="16600" windowHeight="21000" xr2:uid="{9CB12674-85DB-4046-B213-02079AEC5030}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9CB12674-85DB-4046-B213-02079AEC5030}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="63">
   <si>
     <t xml:space="preserve">station 1 </t>
   </si>
@@ -102,9 +102,6 @@
     <t>0.04</t>
   </si>
   <si>
-    <t>0.11</t>
-  </si>
-  <si>
     <t>0.05</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>0.52</t>
   </si>
   <si>
-    <t>0.27</t>
-  </si>
-  <si>
     <t>0.20</t>
   </si>
   <si>
@@ -162,13 +156,7 @@
     <t>0.14</t>
   </si>
   <si>
-    <t>0.56</t>
-  </si>
-  <si>
     <t>initial</t>
-  </si>
-  <si>
-    <t>0.213</t>
   </si>
   <si>
     <t>0.31</t>
@@ -296,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -319,15 +307,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -339,7 +361,54 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +726,7 @@
   <dimension ref="B3:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,1002 +737,1011 @@
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="5" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="27"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
+      <c r="B6" s="12">
         <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>34</v>
+      <c r="N6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
+      <c r="B7" s="12"/>
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>34</v>
+      <c r="N7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
+      <c r="B8" s="12">
         <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>34</v>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
+      <c r="B9" s="12"/>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="4" t="str">
-        <f>"-0.05"</f>
-        <v>-0.05</v>
-      </c>
-      <c r="P9" s="5" t="s">
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>34</v>
+      <c r="Q9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
+      <c r="B10" s="12">
         <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>34</v>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
+      <c r="B11" s="12"/>
       <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>34</v>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>43</v>
+      <c r="B12" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="5" t="s">
+      <c r="E12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>34</v>
+      <c r="Q12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
+      <c r="B13" s="12"/>
       <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>34</v>
+      <c r="N13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="2" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3" t="s">
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4" t="s">
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="5" t="s">
+      <c r="N17" s="23"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="27"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
+      <c r="B19" s="12">
         <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="3" t="s">
+      <c r="E19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>34</v>
+      <c r="Q19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
+      <c r="B20" s="12"/>
       <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="F20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="9" t="s">
+      <c r="L20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>34</v>
+      <c r="Q20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
+      <c r="B21" s="12">
         <v>50</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21" s="5" t="s">
+      <c r="M21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>34</v>
+      <c r="Q21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
+      <c r="B22" s="12"/>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="E22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="M22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="12" t="s">
+      <c r="N22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>34</v>
+      <c r="O22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
+      <c r="B23" s="12">
         <v>100</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="D23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>34</v>
+      <c r="R23" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
+      <c r="B24" s="12"/>
       <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="13" t="s">
+      <c r="H24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>34</v>
+      <c r="L24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>43</v>
+      <c r="B25" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="H25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>34</v>
+      <c r="K25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
+      <c r="B26" s="12"/>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="3" t="s">
+      <c r="I26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P26" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>34</v>
+      <c r="L26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="18">
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J17:L17"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B6:B7"/>
